--- a/biology/Médecine/Rupture_aortique/Rupture_aortique.xlsx
+++ b/biology/Médecine/Rupture_aortique/Rupture_aortique.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rupture aortique est une rupture de la paroi de l'aorte, la plus grande artère du corps[4].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rupture aortique est une rupture de la paroi de l'aorte, la plus grande artère du corps.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Symptômes</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les symptômes peuvent inclure des douleurs abdominales soudaines et sévères, des douleurs thoraciques ou des maux de dos[1],[2]. D'autres symptômes sont des étourdissements, un essoufflement ou des difficultés à avaler[1],[5].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les symptômes peuvent inclure des douleurs abdominales soudaines et sévères, des douleurs thoraciques ou des maux de dos,. D'autres symptômes sont des étourdissements, un essoufflement ou des difficultés à avaler,.
 </t>
         </is>
       </c>
@@ -542,11 +556,13 @@
           <t>Causes</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">La rupture aortique est relativement courante[3] : elle cause jusqu'à 20 % des décès dus aux collisions de véhicules automobiles [1].
-Les causes incluent un traumatisme (contondant ou pénétrant) ou une complication d'un anévrisme de l'aorte (abdominal ou thoracique)[1]. Le diagnostic repose sur l'imagerie médicale, généralement par tomodensitométrie (CT scan)[1].
-Elle se distingue de la dissection aortique, qui est une déchirure traversant uniquement la paroi interne de l'aorte[6].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La rupture aortique est relativement courante : elle cause jusqu'à 20 % des décès dus aux collisions de véhicules automobiles .
+Les causes incluent un traumatisme (contondant ou pénétrant) ou une complication d'un anévrisme de l'aorte (abdominal ou thoracique). Le diagnostic repose sur l'imagerie médicale, généralement par tomodensitométrie (CT scan).
+Elle se distingue de la dissection aortique, qui est une déchirure traversant uniquement la paroi interne de l'aorte.
 </t>
         </is>
       </c>
@@ -575,10 +591,12 @@
           <t>Traitement</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Pour avoir une chance de survie, une intervention chirurgicale immédiate est nécessaire[1]. La plupart (85 %) décèdent immédiatement, tandis que parmi ceux qui survivent à l’hôpital, environ 30 % décèdent plus tard, malgré le traitement[1],[3].
-La prévention comprend la réparation des anévrismes avant la rupture[7].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pour avoir une chance de survie, une intervention chirurgicale immédiate est nécessaire. La plupart (85 %) décèdent immédiatement, tandis que parmi ceux qui survivent à l’hôpital, environ 30 % décèdent plus tard, malgré le traitement,.
+La prévention comprend la réparation des anévrismes avant la rupture.
 </t>
         </is>
       </c>
@@ -607,9 +625,11 @@
           <t>Historique</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les premières descriptions remontent à 1557 par Andreas Vésale[3].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les premières descriptions remontent à 1557 par Andreas Vésale.
 </t>
         </is>
       </c>
